--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 25,22</t>
+          <t>20,1; 25,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 21,18</t>
+          <t>16,27; 21,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 21,65</t>
+          <t>16,45; 22,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,6</t>
+          <t>15,55; 21,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 28,68</t>
+          <t>23,54; 28,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,08</t>
+          <t>29,32; 34,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,16</t>
+          <t>22,34; 28,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 28,79</t>
+          <t>24,15; 29,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 26,34</t>
+          <t>22,62; 26,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,34; 28,24</t>
+          <t>24,32; 28,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 24,46</t>
+          <t>20,8; 24,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 25,28</t>
+          <t>21,48; 25,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,95</t>
+          <t>12,65; 16,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,64</t>
+          <t>13,4; 16,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,94</t>
+          <t>8,41; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,27</t>
+          <t>11,06; 14,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,49</t>
+          <t>18,41; 22,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,96</t>
+          <t>21,74; 26,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,89</t>
+          <t>11,74; 14,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 35,14</t>
+          <t>17,06; 37,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 18,54</t>
+          <t>15,7; 18,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 20,83</t>
+          <t>17,85; 20,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,33</t>
+          <t>10,4; 12,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,82</t>
+          <t>14,56; 23,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,92</t>
+          <t>11,78; 17,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 16,78</t>
+          <t>10,0; 17,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,97</t>
+          <t>6,94; 12,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,08</t>
+          <t>10,98; 16,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 23,21</t>
+          <t>15,93; 23,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,43</t>
+          <t>12,88; 19,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,11</t>
+          <t>11,13; 17,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,2</t>
+          <t>15,0; 20,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,55</t>
+          <t>14,52; 19,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,16</t>
+          <t>12,55; 17,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,54</t>
+          <t>9,61; 13,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 17,32</t>
+          <t>13,84; 17,51</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,58; 18,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,8</t>
+          <t>10,62; 12,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 14,96</t>
+          <t>12,36; 14,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>21,09; 23,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 27,37</t>
+          <t>24,46; 27,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 17,96</t>
+          <t>15,45; 18,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 30,33</t>
+          <t>19,16; 30,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,84; 20,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 21,9</t>
+          <t>19,86; 21,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 15,07</t>
+          <t>13,34; 15,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,63</t>
+          <t>16,37; 23,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,12</t>
+          <t>20,16; 25,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,47</t>
+          <t>16,2; 21,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,02</t>
+          <t>16,19; 21,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 28,33</t>
+          <t>23,66; 28,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,32; 34,32</t>
+          <t>29,15; 34,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,34; 28,11</t>
+          <t>22,44; 28,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 26,32</t>
+          <t>22,98; 26,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,32; 28,06</t>
+          <t>24,17; 28,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,8; 24,83</t>
+          <t>20,55; 24,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 16,13</t>
+          <t>12,57; 16,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 16,74</t>
+          <t>13,42; 16,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,97</t>
+          <t>8,27; 11,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 22,29</t>
+          <t>18,21; 22,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,74; 26,15</t>
+          <t>21,89; 26,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 14,83</t>
+          <t>11,64; 14,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 18,47</t>
+          <t>15,78; 18,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 20,37</t>
+          <t>17,85; 20,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,51</t>
+          <t>10,39; 12,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 17,71</t>
+          <t>11,97; 18,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 17,01</t>
+          <t>10,05; 16,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,17</t>
+          <t>6,83; 11,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,2</t>
+          <t>15,58; 23,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,98</t>
+          <t>13,0; 20,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 17,19</t>
+          <t>10,85; 16,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,23</t>
+          <t>14,55; 19,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 17,62</t>
+          <t>12,52; 17,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 13,69</t>
+          <t>9,54; 13,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 18,3</t>
+          <t>15,59; 18,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 17,12</t>
+          <t>14,44; 17,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,8</t>
+          <t>10,54; 12,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,09; 23,92</t>
+          <t>20,95; 23,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 27,48</t>
+          <t>24,4; 27,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 18,04</t>
+          <t>15,44; 18,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 20,71</t>
+          <t>18,76; 20,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,86; 21,85</t>
+          <t>19,96; 21,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 15,03</t>
+          <t>13,34; 15,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 25,48</t>
+          <t>20,12; 25,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 21,2</t>
+          <t>16,14; 21,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,75</t>
+          <t>16,21; 21,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,88</t>
+          <t>15,49; 21,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,34</t>
+          <t>23,77; 28,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,15; 34,66</t>
+          <t>28,93; 34,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,44; 28,2</t>
+          <t>22,38; 28,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 29,06</t>
+          <t>23,97; 28,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 26,49</t>
+          <t>22,83; 26,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,17; 28,15</t>
+          <t>24,34; 28,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 24,79</t>
+          <t>20,36; 24,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 25,29</t>
+          <t>21,3; 25,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,03</t>
+          <t>12,69; 15,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 16,65</t>
+          <t>13,25; 16,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 11,12</t>
+          <t>8,34; 10,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,06; 14,25</t>
+          <t>10,92; 14,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,37</t>
+          <t>18,26; 22,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 26,22</t>
+          <t>21,76; 25,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 14,76</t>
+          <t>11,68; 14,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 37,46</t>
+          <t>16,96; 35,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 18,29</t>
+          <t>15,86; 18,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 20,57</t>
+          <t>17,96; 20,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,45</t>
+          <t>10,4; 12,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,81</t>
+          <t>14,5; 24,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,12</t>
+          <t>12,04; 17,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,76</t>
+          <t>9,86; 16,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,98</t>
+          <t>6,8; 11,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,28</t>
+          <t>10,79; 16,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,58; 23,72</t>
+          <t>15,9; 23,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,03</t>
+          <t>12,99; 20,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,95</t>
+          <t>10,86; 17,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,09</t>
+          <t>15,21; 20,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,47</t>
+          <t>14,6; 19,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 17,64</t>
+          <t>12,2; 17,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 13,53</t>
+          <t>9,57; 13,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 17,51</t>
+          <t>13,71; 17,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,34</t>
+          <t>15,64; 18,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 17,02</t>
+          <t>14,5; 17,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,79</t>
+          <t>10,56; 12,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 14,97</t>
+          <t>12,5; 14,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,81</t>
+          <t>21,04; 23,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,4; 27,45</t>
+          <t>24,34; 27,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 18,12</t>
+          <t>15,47; 17,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 30,14</t>
+          <t>19,17; 30,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,76; 20,76</t>
+          <t>18,66; 20,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 21,87</t>
+          <t>19,97; 21,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 15,07</t>
+          <t>13,3; 15,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 23,11</t>
+          <t>16,31; 22,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>22,81%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,6</t>
+          <t>15,03; 20,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 28,79</t>
+          <t>23,73; 28,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 25,28</t>
+          <t>20,89; 24,9</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,72%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,27</t>
+          <t>7,92; 13,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 35,14</t>
+          <t>16,1; 44,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,82</t>
+          <t>13,05; 31,25</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,08</t>
+          <t>10,62; 15,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,2</t>
+          <t>15,13; 20,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 17,32</t>
+          <t>13,56; 17,18</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,18%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 14,96</t>
+          <t>9,78; 14,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 30,33</t>
+          <t>18,41; 37,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,63</t>
+          <t>15,17; 26,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 25,22</t>
+          <t>19,93; 25,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 21,18</t>
+          <t>16,1; 21,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 21,65</t>
+          <t>16,32; 21,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,99</t>
+          <t>15,1; 21,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 28,68</t>
+          <t>23,84; 28,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,08</t>
+          <t>29,07; 34,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,16</t>
+          <t>22,48; 28,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 28,42</t>
+          <t>23,86; 28,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 26,34</t>
+          <t>22,9; 26,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,34; 28,24</t>
+          <t>24,23; 27,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 24,46</t>
+          <t>20,54; 24,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 24,9</t>
+          <t>20,98; 24,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,95</t>
+          <t>12,58; 16,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,64</t>
+          <t>13,39; 16,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,94</t>
+          <t>8,32; 11,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,17</t>
+          <t>7,64; 13,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,49</t>
+          <t>18,05; 22,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,96</t>
+          <t>21,85; 26,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,89</t>
+          <t>11,79; 14,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 44,82</t>
+          <t>16,17; 46,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 18,54</t>
+          <t>15,9; 18,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 20,83</t>
+          <t>17,94; 20,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,33</t>
+          <t>10,44; 12,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 31,25</t>
+          <t>13,29; 30,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,92</t>
+          <t>11,58; 17,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 16,78</t>
+          <t>10,13; 16,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,97</t>
+          <t>6,73; 11,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,94</t>
+          <t>10,48; 16,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 23,21</t>
+          <t>15,57; 23,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,43</t>
+          <t>13,08; 20,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,11</t>
+          <t>10,99; 17,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,09</t>
+          <t>14,92; 20,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,55</t>
+          <t>14,6; 19,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,16</t>
+          <t>12,29; 17,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,54</t>
+          <t>9,59; 13,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,18</t>
+          <t>13,33; 17,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,61; 18,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 17,12</t>
+          <t>14,36; 17,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,8</t>
+          <t>10,56; 12,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,04</t>
+          <t>9,66; 14,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>20,9; 23,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 27,37</t>
+          <t>24,35; 27,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 17,96</t>
+          <t>15,5; 17,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,41; 37,94</t>
+          <t>18,46; 39,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,66; 20,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 21,9</t>
+          <t>19,89; 21,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 15,07</t>
+          <t>13,33; 15,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 26,38</t>
+          <t>15,38; 28,28</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>233002</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>181160</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>144125</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91938</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>343359</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>423116</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>250017</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>197633</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>576360</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>604276</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>394142</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>289570</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>205666; 261871</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>156558; 206852</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>123084; 164800</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77649; 110599</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>313505; 378395</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>388266; 459818</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>223148; 282011</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>180297; 217188</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>537435; 620315</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>559365; 644873</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>358805; 426931</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>266333; 315107</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>240163</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>293695</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>198788</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>257004</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>320956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>419346</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>262220</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>544996</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>561119</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>713041</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>461008</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>802000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>213025; 273478</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>262743; 326811</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>172534; 228535</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>174964; 301615</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>286501; 351901</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>382985; 458970</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>234167; 294390</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>361772; 1034457</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>521777; 604993</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>666550; 762987</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>423773; 502226</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>601753; 1370885</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81504</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63604</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50153</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84869</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>91727</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75043</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>74892</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>115239</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>173231</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>138647</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>125046</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>200107</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63827; 99071</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48757; 81751</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36789; 65011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67751; 103943</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>74190; 110524</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59829; 92105</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>60113; 94383</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>98540; 133007</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>150092; 199602</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>115398; 163120</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>104904; 149219</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>174273; 224105</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1354</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>554668</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>538459</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>393066</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>433811</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>756042</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>917505</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>587129</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>857867</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1310710</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1455963</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>980195</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1291678</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>511610; 596679</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>490764; 582790</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>356391; 437972</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>333204; 488515</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>706186; 803807</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>863393; 971751</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>546596; 632056</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>674126; 1457810</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1242138; 1385570</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1384824; 1524041</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>920106; 1040756</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1092367; 2008841</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>